--- a/modelo-01/stuffs/table/table.xlsx
+++ b/modelo-01/stuffs/table/table.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Totem 02\Documents\Alonso\Comp\T03COMP\modelo-01\stuffs\table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E00F1C-400E-416C-AC80-F39009579D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="11625" yWindow="180" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="154">
   <si>
     <t>STATE</t>
   </si>
@@ -191,27 +196,12 @@
     <t>acc</t>
   </si>
   <si>
-    <t>r( Stmts -&gt; Stmt )</t>
-  </si>
-  <si>
-    <t>r( Stmts -&gt; Function )</t>
-  </si>
-  <si>
     <t>s21</t>
   </si>
   <si>
     <t>s22</t>
   </si>
   <si>
-    <t>r( Stmt -&gt; For )</t>
-  </si>
-  <si>
-    <t>r( Stmt -&gt; Read )</t>
-  </si>
-  <si>
-    <t>r( Stmt -&gt; Write )</t>
-  </si>
-  <si>
     <t>s23</t>
   </si>
   <si>
@@ -242,33 +232,9 @@
     <t>s36</t>
   </si>
   <si>
-    <t>r( Type -&gt; note )</t>
-  </si>
-  <si>
-    <t>r( Type -&gt; liltengwa )</t>
-  </si>
-  <si>
-    <t>r( Type -&gt; yulmavene )</t>
-  </si>
-  <si>
-    <t>r( Stmts -&gt; Stmt Stmts )</t>
-  </si>
-  <si>
-    <t>r( Stmts -&gt; Function Stmts )</t>
-  </si>
-  <si>
-    <t>r( Stmt -&gt; If Else )</t>
-  </si>
-  <si>
     <t>s37</t>
   </si>
   <si>
-    <t>r( Else -&gt; } )</t>
-  </si>
-  <si>
-    <t>r( Stmt -&gt; Declaration ; )</t>
-  </si>
-  <si>
     <t>s38</t>
   </si>
   <si>
@@ -290,15 +256,6 @@
     <t>s43</t>
   </si>
   <si>
-    <t>r( Arit -&gt; Factor )</t>
-  </si>
-  <si>
-    <t>r( Factor -&gt; id )</t>
-  </si>
-  <si>
-    <t>r( Factor -&gt; number )</t>
-  </si>
-  <si>
     <t>s48</t>
   </si>
   <si>
@@ -311,9 +268,6 @@
     <t>s53</t>
   </si>
   <si>
-    <t>r( Declaration -&gt; Type id )</t>
-  </si>
-  <si>
     <t>s54</t>
   </si>
   <si>
@@ -323,9 +277,6 @@
     <t>s57</t>
   </si>
   <si>
-    <t>r( Log -&gt; opl boolean )</t>
-  </si>
-  <si>
     <t>s64</t>
   </si>
   <si>
@@ -341,12 +292,6 @@
     <t>s69</t>
   </si>
   <si>
-    <t>r( Expr -&gt; Arit )</t>
-  </si>
-  <si>
-    <t>r( Expr -&gt; Rel )</t>
-  </si>
-  <si>
     <t>s73</t>
   </si>
   <si>
@@ -356,24 +301,6 @@
     <t>s75</t>
   </si>
   <si>
-    <t>r( If -&gt; qui Rel { Stmt )</t>
-  </si>
-  <si>
-    <t>r( If -&gt; qui Log { Stmt )</t>
-  </si>
-  <si>
-    <t>r( Rel -&gt; Arit opr Arit )</t>
-  </si>
-  <si>
-    <t>r( Arit -&gt; Arit opa Factor )</t>
-  </si>
-  <si>
-    <t>r( Log -&gt; opl id Log )</t>
-  </si>
-  <si>
-    <t>r( Factor -&gt; ( Arit ) )</t>
-  </si>
-  <si>
     <t>s76</t>
   </si>
   <si>
@@ -386,21 +313,12 @@
     <t>s80</t>
   </si>
   <si>
-    <t>r( Expr -&gt; id Log )</t>
-  </si>
-  <si>
-    <t>r( Declaration -&gt; Type id = Factor )</t>
-  </si>
-  <si>
     <t>s81</t>
   </si>
   <si>
     <t>s82</t>
   </si>
   <si>
-    <t>r( Params -&gt; Type id )</t>
-  </si>
-  <si>
     <t>s84</t>
   </si>
   <si>
@@ -413,15 +331,6 @@
     <t>s87</t>
   </si>
   <si>
-    <t>r( Read -&gt; ista ( id ) ; )</t>
-  </si>
-  <si>
-    <t>r( Write -&gt; sarme ( Expr ) ; )</t>
-  </si>
-  <si>
-    <t>r( Else -&gt; cela entulesse { Stmt } )</t>
-  </si>
-  <si>
     <t>s89</t>
   </si>
   <si>
@@ -434,30 +343,15 @@
     <t>s94</t>
   </si>
   <si>
-    <t>r( Function -&gt; hyaline id ( ) { Stmt } )</t>
-  </si>
-  <si>
-    <t>r( Params -&gt; Type id , Params )</t>
-  </si>
-  <si>
     <t>s96</t>
   </si>
   <si>
     <t>s97</t>
   </si>
   <si>
-    <t>r( Function -&gt; hyaline id ( Params ) { Stmt } )</t>
-  </si>
-  <si>
     <t>s98</t>
   </si>
   <si>
-    <t>r( For -&gt; an ( Forexpr ) car { Stmt } )</t>
-  </si>
-  <si>
-    <t>r( For -&gt; an ( note Forexpr ) car { Stmt } )</t>
-  </si>
-  <si>
     <t>s100</t>
   </si>
   <si>
@@ -470,26 +364,132 @@
     <t>s104</t>
   </si>
   <si>
-    <t>r( Forexpr -&gt; id = Factor , id oprel Factor , id Postfix )</t>
-  </si>
-  <si>
-    <t>r( Postfix -&gt; ++ )</t>
-  </si>
-  <si>
-    <t>r( Postfix -&gt; -- )</t>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r0</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>r3</t>
+  </si>
+  <si>
+    <t>r4</t>
+  </si>
+  <si>
+    <t>r5</t>
+  </si>
+  <si>
+    <t>r6</t>
+  </si>
+  <si>
+    <t>r7</t>
+  </si>
+  <si>
+    <t>r8</t>
+  </si>
+  <si>
+    <t>r9</t>
+  </si>
+  <si>
+    <t>r10</t>
+  </si>
+  <si>
+    <t>r11</t>
+  </si>
+  <si>
+    <t>r12</t>
+  </si>
+  <si>
+    <t>r13</t>
+  </si>
+  <si>
+    <t>r14</t>
+  </si>
+  <si>
+    <t>r18</t>
+  </si>
+  <si>
+    <t>r15</t>
+  </si>
+  <si>
+    <t>r16</t>
+  </si>
+  <si>
+    <t>r17</t>
+  </si>
+  <si>
+    <t>r19</t>
+  </si>
+  <si>
+    <t>r20</t>
+  </si>
+  <si>
+    <t>r21</t>
+  </si>
+  <si>
+    <t>r22</t>
+  </si>
+  <si>
+    <t>r23</t>
+  </si>
+  <si>
+    <t>r24</t>
+  </si>
+  <si>
+    <t>r25</t>
+  </si>
+  <si>
+    <t>r26</t>
+  </si>
+  <si>
+    <t>r27</t>
+  </si>
+  <si>
+    <t>r28</t>
+  </si>
+  <si>
+    <t>r29</t>
+  </si>
+  <si>
+    <t>r30</t>
+  </si>
+  <si>
+    <t>r31</t>
+  </si>
+  <si>
+    <t>r32</t>
+  </si>
+  <si>
+    <t>r33</t>
+  </si>
+  <si>
+    <t>r34</t>
+  </si>
+  <si>
+    <t>r35</t>
+  </si>
+  <si>
+    <t>r36</t>
+  </si>
+  <si>
+    <t>r37</t>
+  </si>
+  <si>
+    <t>r38</t>
+  </si>
+  <si>
+    <t>r39</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -500,28 +500,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -811,19 +820,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="C76" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -834,7 +840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -974,7 +980,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1030,7 +1036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1067,7 +1073,7 @@
         <v>56</v>
       </c>
       <c r="AC5" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="AD5">
         <v>18</v>
@@ -1097,7 +1103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>56</v>
       </c>
       <c r="AC6" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="AD6">
         <v>19</v>
@@ -1156,165 +1162,165 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG7">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="P8" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="Q8" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="R8" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="X8" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="Y8" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="Z8" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="AB8" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="AC8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:47">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="N9" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="P9" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="Q9" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="R9" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="X9" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="Y9" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="Z9" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="AB9" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="AC9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:47">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="N10" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="P10" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="Q10" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="R10" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="X10" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="Y10" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="Z10" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="AB10" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="AC10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:47">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:47">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:47">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="S13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="U13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI13">
         <v>27</v>
@@ -1329,321 +1335,321 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:47">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:47">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:47">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="O17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:47">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="O18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:47">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="O19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:47">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="O20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:47">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="AC21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:47">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="AC22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:47">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="L23" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="N23" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="Q23" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="R23" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="X23" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="Y23" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="Z23" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AB23" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AC23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:47">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="M24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:47">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="I25" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="L25" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="N25" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="P25" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="Q25" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="R25" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="X25" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="Y25" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="Z25" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="AB25" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="AC25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:47">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="I26" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="L26" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="N26" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="P26" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="Q26" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="R26" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="X26" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="Y26" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="Z26" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="AB26" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="AC26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:47">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:47">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="AA28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:47">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="AA29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:47">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="T30" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="V30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:47">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="J31" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="O31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:47">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="T32" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="V32" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="AA32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:47">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="G33" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="T33" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="V33" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="AA33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:47">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="G34" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="T34" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="V34" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AA34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:47">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O35" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="S35" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AI35">
         <v>45</v>
@@ -1652,40 +1658,40 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:47">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="O36" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="R36" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="AN36">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:47">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="O37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:47">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O38" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="S38" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AH38">
         <v>50</v>
@@ -1700,31 +1706,31 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:47">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="H39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:47">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="AA40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:47">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="Q41" t="s">
         <v>52</v>
@@ -1742,7 +1748,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:47">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1789,7 +1795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:47">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -1836,18 +1842,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:47">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O44" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="S44" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AI44">
         <v>61</v>
@@ -1856,168 +1862,168 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:47">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O45" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="S45" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AJ45">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:47">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="U46" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL46">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:47">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="AA47" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:47">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="T48" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:47">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
       <c r="O49" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="AN49">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:47">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:47">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
       <c r="H51" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:47">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:47">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:47">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="T54" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="V54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:47">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:47">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="E56" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="G56" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="T56" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="U56" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="V56" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="AA56" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="AL56">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:47">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O57" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="S57" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AJ57">
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:47">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
@@ -2064,199 +2070,199 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:47">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:47">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
       <c r="AA60" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:47">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
       <c r="O61" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:47">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
       <c r="L62" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="AB62" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:47">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
       <c r="L63" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="AB63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:47">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="T64" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AA64" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:47">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="T65" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="V65" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="AA65" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:47">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="AA66" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:47">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E67" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="G67" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="T67" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="V67" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="AA67" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="68" spans="1:47">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="69" spans="1:47">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>66</v>
       </c>
       <c r="K69" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="70" spans="1:47">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O70" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="S70" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AJ70">
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:47">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>68</v>
       </c>
       <c r="G71" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="72" spans="1:47">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>69</v>
       </c>
       <c r="G72" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73" spans="1:47">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:47">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>71</v>
       </c>
       <c r="G74" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="75" spans="1:47">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>72</v>
       </c>
       <c r="AB75" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="76" spans="1:47">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>73</v>
       </c>
       <c r="AA76" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" spans="1:47">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>74</v>
       </c>
@@ -2303,156 +2309,156 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:47">
+    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="E78" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="79" spans="1:47">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>76</v>
       </c>
       <c r="K79" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="80" spans="1:47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>77</v>
       </c>
       <c r="AA80" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="81" spans="1:47">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>78</v>
       </c>
       <c r="E81" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="82" spans="1:47">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>79</v>
       </c>
       <c r="I82" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="L82" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="N82" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Q82" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="R82" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="X82" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Y82" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Z82" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AB82" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AC82" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="83" spans="1:47">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>80</v>
       </c>
       <c r="I83" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="L83" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="N83" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="Q83" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="R83" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="X83" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="Y83" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="Z83" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="AB83" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="AC83" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="84" spans="1:47">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>81</v>
       </c>
       <c r="I84" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L84" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="N84" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="P84" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Q84" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="R84" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="X84" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Y84" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Z84" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="AB84" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="AC84" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="85" spans="1:47">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>82</v>
       </c>
@@ -2499,15 +2505,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:47">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>83</v>
       </c>
       <c r="AB86" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="87" spans="1:47">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>84</v>
       </c>
@@ -2527,15 +2533,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:47">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>85</v>
       </c>
       <c r="AA88" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="89" spans="1:47">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>86</v>
       </c>
@@ -2582,63 +2588,63 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:47">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>87</v>
       </c>
       <c r="O90" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:47">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>88</v>
       </c>
       <c r="AB91" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="92" spans="1:47">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>89</v>
       </c>
       <c r="I92" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="N92" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="P92" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="Q92" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="R92" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="X92" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="Y92" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="Z92" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AC92" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="93" spans="1:47">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>90</v>
       </c>
       <c r="C93" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="94" spans="1:47">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>91</v>
       </c>
@@ -2685,221 +2691,211 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:47">
+    <row r="95" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>92</v>
       </c>
       <c r="AB95" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="96" spans="1:47">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>93</v>
       </c>
       <c r="W96" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="97" spans="1:47">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>94</v>
       </c>
       <c r="I97" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="N97" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q97" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="R97" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="X97" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Y97" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Z97" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="AC97" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="98" spans="1:47">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>95</v>
       </c>
       <c r="AB98" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="99" spans="1:47">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>96</v>
       </c>
       <c r="I99" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L99" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="N99" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="P99" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="Q99" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R99" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="X99" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="Y99" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="Z99" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AB99" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AC99" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="100" spans="1:47">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O100" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="S100" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AJ100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:47">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>98</v>
       </c>
       <c r="I101" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="L101" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="N101" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="P101" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Q101" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="R101" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="X101" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Y101" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Z101" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="AB101" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="AC101" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="102" spans="1:47">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>99</v>
       </c>
       <c r="E102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:47">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>100</v>
       </c>
       <c r="O103" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="104" spans="1:47">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>101</v>
       </c>
       <c r="D104" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="F104" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="AO104">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:47">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>102</v>
       </c>
       <c r="C105" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="106" spans="1:47">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>103</v>
       </c>
       <c r="C106" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="107" spans="1:47">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>104</v>
       </c>
       <c r="C107" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>